--- a/src/IBMLABS/CallforCodeDayPlan-Worksheet.xlsx
+++ b/src/IBMLABS/CallforCodeDayPlan-Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timro/Desktop/CFC/digital-call-kits/IBMLABS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040F105-ED5A-6047-B88E-7811C71E5AC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C477A093-C6D1-2642-AE2D-95ED5F52A002}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="880" windowWidth="27640" windowHeight="16000" xr2:uid="{5A7AAFEF-A55D-B647-B881-725EFD563BC8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>Ref</t>
   </si>
@@ -136,27 +136,15 @@
     <t>Recruiting kickoff</t>
   </si>
   <si>
-    <t>Broadcast an internal introduction to the Call for Code using the sample nurture email, customized with your organization's unique tracking sign up information. If appropriate, put out a call for some leaders to join you in planning the event, both for logistics as well as technical organization and use case selection. You should also register for the challenge and visit to the developer.ibm.com/callforcode web site to learn more about challenge use cases and starter code patterns.</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>Identify target use cases</t>
-  </si>
-  <si>
-    <t>The overall context of disaster preparedness is very broad and the example use cases cover many dimensions. Find some time with design and strategy leads in your organization to help narrow down areas of focus within the use cases. Consider which timeframe around preparing for and mitigating natural disaster impact makes the most sense for your organization. It is in long-term planning, short-term warning, real-time help, or rebuilding and recovery. You can also select two or more of the six focus areas based on your organization's expertise and interests.</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
     <t>Create internal signup</t>
   </si>
   <si>
-    <t>Use an existing or create a simple internal registration process for confirming particpation and getting counts to assist in space and food logistics. Include in the internal registration a place for participants to identify any special dietary needs. Announce internally and include again the unique tracking sign up and call to action as a reminder for those that have not already registered.</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>Event execution Social</t>
   </si>
   <si>
-    <t>Use the Call for Code day as a point in time event for your corporate social responsibility program and general internal recognition programs. Invite members from those teams to join in for parts or all of the event to take pictures, make video interviews, or even join in with teams to provide their insights. Use the hashtag #CallforCode to promote your organization's day on social media.</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
@@ -199,9 +184,6 @@
     <t>Final reminder</t>
   </si>
   <si>
-    <t>Keep in touch with your teams, either informally or more formally while they work on their projects. Use the final sample nuture email to remind them to submit their projects and thank all participants in the orgnization. Check with your corporate social responsibility team if they want to also participate in recognition at this point.</t>
-  </si>
-  <si>
     <t>Event Execution Logistics</t>
   </si>
   <si>
@@ -241,69 +223,12 @@
     <t>Day 1 afternoon snack</t>
   </si>
   <si>
-    <t>Grab and go snacks, plus drinks including coffee, tea and plenty of water</t>
-  </si>
-  <si>
     <t>M5</t>
   </si>
   <si>
-    <t>Day 1 dinner</t>
-  </si>
-  <si>
-    <t>Teams may be ready for a longer break but don't plan a 3 course sit down meal</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>Day 1 evening refreshments</t>
-  </si>
-  <si>
-    <t>If the venue will be open overnight, this may work well with light snacks early followed by late nite pizza</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>Day 2 breakfast</t>
-  </si>
-  <si>
-    <t>Have a few options beyond cereal, coffee, tea and water. Definitely time for some fresh fruit.</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>Day 2 snack / refreshments</t>
-  </si>
-  <si>
-    <t>Keep the fruit, add more drinks and snack bars.</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>Day 2 lunch</t>
-  </si>
-  <si>
-    <t>Box lunch, sandwiches, something that's easy to grab and go works well here since teams are now in the final push and have limited time</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>Day 2 afternoon snack</t>
-  </si>
-  <si>
     <t>Variety of drinks and snacks and maybe something cheery and fun like popsicles or ice cream</t>
   </si>
   <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>Day 2 celebration dinner</t>
-  </si>
-  <si>
     <t>Cap of the day with a bit of a party, or call it a day and let the teams go home and rest.</t>
   </si>
   <si>
@@ -331,9 +256,6 @@
     <t>Technical Introduction</t>
   </si>
   <si>
-    <t>Introduce the event and overall agenda for the Call for Code day. Use the provided Call for Code technical kickoff presentation to cover the chosen use cases and reference code patterns. As appropriate, include the material on IBM Cloud and Cloud services. Tip: Tune in to the IBM virtual kickoff overview presentations that are available for example talking points and how to demo IBM Cloud dashboard and access to services.</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
@@ -355,18 +277,9 @@
     <t>E6</t>
   </si>
   <si>
-    <t>Pitch Workshop</t>
-  </si>
-  <si>
-    <t>At or near the start of the second day, you can hold a brief pitch workshop using the provided presentation. Many common mistakes that get in the way of showing off a team's good work can be avoided. With just a short 15 minute time investment, teams will get a set of best practices to follow.</t>
-  </si>
-  <si>
     <t>Judging</t>
   </si>
   <si>
-    <t>Plan to have Judging move quickly and keep teams on a consistent clock. For smaller events, having each team run their demo and pitch for the entire audience including judges is a great way to show off what they've done and get insights from peers, but at 3-5 minutes per presentation, having over 30 teams do this will take a lot of time. In that case, it's better for there to be teams of judges who go around to talk to each team in a science-fair format, then compare notes and select finalists. Then, the finalists (5-8) can all do pitches to the full audience in a shorter session.</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
@@ -487,13 +400,31 @@
     <t>System developer / integrator who understands how to access back end systems and present data and services through RESTful APIs.</t>
   </si>
   <si>
-    <t>Order internal swag</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>IBM will be sending you a box of Call for Code swag for distribution during the Call for Code day, but as internal registrations are coming in, consider what other organization items you will want to also provide participants at or shortly after the event. Items can be door prizes or also recognition items to distribute as teams submit their projects to the challenge.</t>
+    <t>Broadcast an internal introduction to the Call for Code using the sample nurture email. If appropriate, put out a call for some leaders to join you in planning the event, both for logistics as well as technical organization and use case selection.</t>
+  </si>
+  <si>
+    <t>If desired for detailed planning, use an existing or create a simple internal registration process for confirming particpation and getting counts to assist in space and food logistics. Include in the internal registration a place for participants to identify any special dietary needs. Announce internally and include again the unique tracking sign up and call to action as a reminder for those that have not already registered.</t>
+  </si>
+  <si>
+    <t>Order swag</t>
+  </si>
+  <si>
+    <t>The Call for Code main team will send you a SWAG kit. Consider any additional locally funded items as appropriate for door prizes or recognition items to distribute as teams submit their projects to the challenge.</t>
+  </si>
+  <si>
+    <t>Use the Call for Code day as a point in time event for your lab's corporate social responsibility program and internal recognition programs. Invite members from those teams to join in for parts or all of the event to take pictures, make video interviews, or even join in with teams to provide their insights. Use the hashtag #CallforCode to promote your organization's day on social media.</t>
+  </si>
+  <si>
+    <t>Keep in touch with your teams, either informally or more formally while they work on their projects. Use the final sample nuture email to remind them to submit their projects and thank all participants in the orgnization. Check with your lab's corporate social responsibility team if they want to also participate in recognition at this point.</t>
+  </si>
+  <si>
+    <t>Day 1 celebration dinner</t>
+  </si>
+  <si>
+    <t>Introduce the event and overall agenda for the Call for Code day. Use the provided Call for Code technical kickoff presentation to cover the  use cases and reference code patterns. As appropriate, include the material on IBM Cloud and Cloud services. Tip: Tune in to the IBM virtual kickoff overview presentations that are available for example talking points and how to demo IBM Cloud dashboard and access to services.</t>
+  </si>
+  <si>
+    <t>Plan to have formal judging as an optional component for awarding local prices. The pitch session should primarily focus on getting peer feedback and input on these early MVPs so that teams can continue work through the rest of the challenge.</t>
   </si>
 </sst>
 </file>
@@ -917,11 +848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6968080-2ECB-F347-8DA2-0E83BA0038A9}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1143,7 +1074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="5" customFormat="1" ht="113">
+    <row r="14" spans="1:35" s="5" customFormat="1" ht="65">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1151,345 +1082,257 @@
         <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="5" customFormat="1" ht="113">
+      <c r="A15" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="5" customFormat="1" ht="145">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="5" customFormat="1" ht="65">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="49">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" s="5" customFormat="1" ht="97">
-      <c r="A16" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="106" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="97">
-      <c r="A17" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="49">
-      <c r="A18" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="97">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="113">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="97">
       <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="81">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24">
+      <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="97">
-      <c r="A21" s="5" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="97">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" ht="81">
-      <c r="A22" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="5" t="s">
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="19">
+      <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="24">
-      <c r="A23" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" ht="97">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="49">
+      <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="19">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="33">
+      <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" ht="49">
-      <c r="A27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="5" customFormat="1" ht="33">
       <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="49">
+      <c r="A29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="5" t="s">
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="81">
+      <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" ht="33">
-      <c r="A29" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="5" t="s">
+    </row>
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="113">
+      <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" ht="38">
-      <c r="A30" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="5" customFormat="1" ht="97">
+      <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" ht="33">
-      <c r="A31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="81">
+      <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="5" customFormat="1" ht="38">
-      <c r="A32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" s="5" customFormat="1" ht="65">
+      <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="33">
-      <c r="A33" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="5" customFormat="1" ht="81">
+      <c r="A35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" ht="33">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:3" s="5" customFormat="1" ht="65">
+      <c r="A36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="33">
-      <c r="A35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" ht="49">
-      <c r="A36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="81">
-      <c r="A37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" ht="113">
-      <c r="A38" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="97">
-      <c r="A39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" ht="81">
-      <c r="A40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" ht="81">
-      <c r="A41" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" ht="145">
-      <c r="A42" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="81">
-      <c r="A43" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" ht="65">
-      <c r="A44" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1515,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1523,136 +1366,136 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="48">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="32">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="48">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="64">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="64">
       <c r="A7" s="5" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="48">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="48">
       <c r="A9" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="32">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="48">
       <c r="A11" s="5" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1"/>
